--- a/LeetCode刷题记录.xlsx
+++ b/LeetCode刷题记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenbin/Documents/Leetcode_and_Cpp/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265DEE22-FAB6-5246-A228-05900D746F93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70650619-1100-7D42-B9A1-B6C74EA4C479}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-4320" windowWidth="33600" windowHeight="21000" xr2:uid="{3D6822DC-35D2-5346-BB48-DC23B3DD3301}"/>
+    <workbookView xWindow="23880" yWindow="-3860" windowWidth="33600" windowHeight="20540" xr2:uid="{3D6822DC-35D2-5346-BB48-DC23B3DD3301}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="917">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1547" uniqueCount="989">
   <si>
     <t>题号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1603,9 +1603,6 @@
   <si>
     <t>完全平方数</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>给定正整数 n，找到若干个完全平方数（比如 1, 4, 9, 16, ...）使得它们的和等于 n。你需要让组成和的完全平方数的个数最少。</t>
   </si>
   <si>
     <t>这里我只想出了O(n^2)的DP算法，超时。
@@ -2750,9 +2747,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>给你一个二叉搜索树和其中的某一个结点，请你找出该结点在树中顺序后继的节点。</t>
-  </si>
-  <si>
     <t>牢记：二叉搜索树的中序遍历的结果就是其中的元素按大小顺序输出的结果。
 此题只要按中序遍历顺序，记录下上一个访问的节点，如果上一个访问的节点就是要找的，那当前节点即为要找的结果。</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3109,10 +3103,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>最大间距</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>和为K的子数组</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4243,6 +4233,298 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/single-number-iii/</t>
+  </si>
+  <si>
+    <t>丑数II</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>堆、数学、动态规划</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写一个程序，找出第n个丑数。
+丑数就是只包含质因数2、3、5的正整数。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">动态规划，维护三个指针，因为后边的丑数一定是前边丑数的2、3、或5倍，所以从前边丑数的基础上乘以2、3、5然后去最小的就可以。 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/ugly-number-ii/</t>
+  </si>
+  <si>
+    <t>H指数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一位研究者论文被引用次数的数组（被引用次数是非负整数）。编写一个方法，计算出研究者的 h 指数.
+h 指数的定义: “h 代表“高引用次数”（high citations），一名科研人员的 h 指数是指他（她）的 （N 篇论文中）至多有 h 篇论文分别被引用了至少 h 次。（其余的 N - h 篇论文每篇被引用次数不多于 h 次。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定正整数 n，找到若干个完全平方数（比如 1, 4, 9, 16, ...）使得它们的和等于 n。你需要让组成和的完全平方数的个数最少。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给你一个二叉搜索树和其中的某一个结点，请你找出该结点在树中顺序后继的节点。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>题本身没有什么难度，关键在于能否理解题意。
+直接排序然后遍历扫描就行了，时间复杂度O(nlogn)，空间复杂度O(n)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/h-index/</t>
+  </si>
+  <si>
+    <t>摆动排序</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">给你一个无序的数组nums，将该数组原地重排后使得nums[0] &lt;= nums[1] &gt;= nums[2] … </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接排序，然后两两交换</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/wiggle-sort/</t>
+  </si>
+  <si>
+    <t>锯齿迭代器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给出两个一维的向量，请你实现一个迭代器，交替返回它们中间的元素。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用一个变量记录当前该轮到哪个数组了，很简单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/zigzag-iterator/</t>
+  </si>
+  <si>
+    <t>顶端迭代器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个迭代器类的接口，接口包含两个方法： next() 和 hasNext()。设计并实现一个支持 peek() 操作的顶端迭代器.
+其本质就是把原本应由 next() 方法返回的元素 peek() 出来。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白给题，不知道意义何在</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/peeking-iterator/</t>
+  </si>
+  <si>
+    <t>墙与门</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>广度优先搜索</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给一个网格，上边有空房间，门，和障碍物。要求给每个空房间填上其到最近的门的距离。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多源BFS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/walls-and-gates/</t>
+  </si>
+  <si>
+    <t>单词的唯一缩写</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>假设你有一个字典和一个单词，请你判断该单词的缩写在这本字典中是否唯一。若单词的缩写在字典中没有任何 其他 单词与其缩写相同，则被称为单词的唯一缩写。</t>
+  </si>
+  <si>
+    <t>用哈希表存字典中的单词和缩写就行 。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/unique-word-abbreviation/</t>
+  </si>
+  <si>
+    <t>超级丑数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>堆、数学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查找第n个超级丑数。超级丑数是所有质因数都是给定质数列表中的数。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维护一个优先队列，其实跟丑数的原理差不多，每次将队列首部元素拿出来，然后乘所有列表中的数，再塞回队列中。直到找到第n个数为止。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/super-ugly-number/</t>
+  </si>
+  <si>
+    <t>重新安排行程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS、图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个机票的字符串二维数组 [from, to]，子数组中的两个成员分别表示飞机出发和降落的机场地点，对该行程进行重新规划排序。所有这些机票都属于一个从JFK（肯尼迪国际机场）出发的先生，所以该行程必须从 JFK 出发.
+如果有多种答案，还要求返回字典序最小的。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/reconstruct-itinerary/</t>
+  </si>
+  <si>
+    <t>这个题本质上是求一条欧拉路径（即从图中的一个点出发，经过所有的边，并且每个边都经过且只能经过一次）。
+方法在于正常做DFS遍历，但是只有当从这个点出发没有新的行程之后，才将这个点加入结果list当中，最后将结果list给reverse一下就是最终答案。
+这个题关键在于要注意一些特殊情况，有些情况用普通的顺序DFS是不行的，因为会走到死胡同里出不来，最后不能满足经过所有的边的题目要求。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪吃蛇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>要求设计一个贪吃蛇类，每当给出一个操作时，对蛇进行相关操作，计分，判断蛇的死活等。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其实就是用队列来存蛇的蛇头到蛇尾，然后注意判断是否撞墙和吃到自己，是否吃到豆等情况。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/design-snake-game/</t>
+  </si>
+  <si>
+    <t>设计推特</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>堆、设计、哈希表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>要求设计一个简化版的推特，实现关注、取关，发推特。并且要求查看最近十条推文。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个题的难点就在于查看最近十条推文的要求，因为要从自己关注的所有人（包括自己）的所有推特中找到前10条。其实也没什么好方法，只能为整个类设计一个全局变量记录推特的id，用一个哈希表存每个用户发的推特，一个哈希表存每个用户所关注的其他用户。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/design-twitter/</t>
+  </si>
+  <si>
+    <t>计算各个位数不同的数字个数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学、动态规划、回溯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个非负整数n，计算各位数字都不同的数字x的个数。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/count-numbers-with-unique-digits/</t>
+  </si>
+  <si>
+    <t>。。。没啥好办法。。。 直接硬编码返回的。第二轮有时间再好好看看正规解法吧。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级次方</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算 a^b 对 1337 取模，a 是一个正整数，b 是一个非常大的正整数且会以数组形式给出。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要用到公式：(x*y)%k = (x%k)(y%k)%k，例如:
+2^12345 % k = ((2^1234)^10 % k) * (2 ^ 5 % k) % k</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/super-pow/</t>
+  </si>
+  <si>
+    <t>除法求值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>并查集、图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给出方程式 A / B = k, 其中 A 和 B 均为代表字符串的变量， k 是一个浮点型数字。根据已知方程式求解问题，并返回计算结果。如果结果不存在，则返回 -1.0。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>相当于给出一大堆除法的式子，然后再给出一堆式子让求值。其实关键在于把给定的每个式子当做图上的一条 加权边 ，每个字母当做边的两个端点，然后对每个新式子，用BFS从该点出发搜就行了。
+其实更好的办法是用并查集，例如要求B / C，这个集合中A是头，那么只要有A/B的值和A/C的值，B/C的值自然就得到了。在第二轮中可以尝试一下，会比BFS快很多很多</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/evaluate-division/</t>
+  </si>
+  <si>
+    <t>替换后的最长重复字符</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>双指针、滑动窗口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给你一个仅由大写英文字母组成的字符串，你可以将任意位置上的字符替换成另外的字符，总共可最多替换 k 次。在执行上述操作后，找到包含重复字母的最长子串的长度。</t>
+  </si>
+  <si>
+    <t>其实关键是找到替换谁和保留谁的问题，要想子串长度最大，那么保留的一定是出现次数最多的，其他的是需要被替换的。
+双指针实现滑动窗口，快指针一直往前走，直到k次替换不够用了，慢指针跟上，直到k次替换够用为止。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/longest-repeating-character-replacement/</t>
+  </si>
+  <si>
+    <t>将二叉搜索树转化为排序的双向链表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>树、链表、分治法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>将一个BST原地转化为一个已排序的双向循环链表，将左右孩子节点作为链表节点的前驱和后继指针。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际上很简单，正常先把迭代版本的中序遍历写出来，再记录下lastVisited，将当前节点的左指针指向lastVisited，lastVisited的右指针指向当前节点，以此类推，这样就行了。 当然DummyHead大法还是要用的，最后别忘了成环，返回DummyHead-&gt;next就行了。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/convert-binary-search-tree-to-sorted-doubly-linked-list/</t>
   </si>
 </sst>
 </file>
@@ -4790,10 +5072,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA52792F-EFCF-8A4A-B829-88BCBEFF0CD1}">
-  <dimension ref="A1:I217"/>
+  <dimension ref="A1:I233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D170" zoomScale="143" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E174" sqref="E174"/>
+    <sheetView tabSelected="1" topLeftCell="F208" zoomScale="143" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I210" sqref="I210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4898,7 +5180,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>40</v>
@@ -4907,17 +5189,17 @@
         <v>7</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="2" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="51">
@@ -5060,7 +5342,7 @@
         <v>27</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>28</v>
@@ -5069,17 +5351,17 @@
         <v>7</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="2" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="119">
@@ -5087,7 +5369,7 @@
         <v>38</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>96</v>
@@ -5133,7 +5415,7 @@
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="6" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="51">
@@ -5195,26 +5477,26 @@
         <v>67</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="2" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="34">
@@ -5276,7 +5558,7 @@
         <v>83</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>13</v>
@@ -5285,17 +5567,17 @@
         <v>7</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="2" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="68">
@@ -5330,7 +5612,7 @@
         <v>100</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>88</v>
@@ -5339,17 +5621,17 @@
         <v>7</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H20" s="6"/>
       <c r="I20" s="2" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="68">
@@ -5366,7 +5648,7 @@
         <v>7</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>92</v>
@@ -5411,26 +5693,26 @@
         <v>107</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="2" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="34">
@@ -5465,7 +5747,7 @@
         <v>110</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>88</v>
@@ -5474,17 +5756,17 @@
         <v>7</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H25" s="6"/>
       <c r="I25" s="2" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="51">
@@ -5492,26 +5774,26 @@
         <v>111</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H26" s="6"/>
       <c r="I26" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="51">
@@ -5519,7 +5801,7 @@
         <v>112</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>88</v>
@@ -5528,17 +5810,17 @@
         <v>7</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H27" s="6"/>
       <c r="I27" s="2" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="68">
@@ -5760,7 +6042,7 @@
         <v>169</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>117</v>
@@ -5976,7 +6258,7 @@
         <v>203</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>13</v>
@@ -5985,17 +6267,17 @@
         <v>7</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H44" s="6"/>
       <c r="I44" s="2" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="34">
@@ -6066,10 +6348,10 @@
         <v>7</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="G47" s="6" t="s">
         <v>10</v>
@@ -6084,7 +6366,7 @@
         <v>225</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>90</v>
@@ -6093,17 +6375,17 @@
         <v>7</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="G48" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H48" s="6"/>
       <c r="I48" s="2" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="17">
@@ -6111,26 +6393,26 @@
         <v>226</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="G49" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="2" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="34">
@@ -6138,26 +6420,26 @@
         <v>231</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="G50" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H50" s="6"/>
       <c r="I50" s="2" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="51">
@@ -6165,7 +6447,7 @@
         <v>232</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>90</v>
@@ -6174,17 +6456,17 @@
         <v>7</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="G51" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H51" s="6"/>
       <c r="I51" s="2" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="34">
@@ -6219,26 +6501,26 @@
         <v>235</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H53" s="6"/>
       <c r="I53" s="8" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="29" customHeight="1">
@@ -6300,7 +6582,7 @@
         <v>243</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>69</v>
@@ -6309,17 +6591,17 @@
         <v>7</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="G56" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H56" s="6"/>
       <c r="I56" s="2" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="51">
@@ -6327,7 +6609,7 @@
         <v>246</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>44</v>
@@ -6336,17 +6618,17 @@
         <v>7</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="G57" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H57" s="6"/>
       <c r="I57" s="2" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="34">
@@ -6354,7 +6636,7 @@
         <v>252</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>258</v>
@@ -6363,17 +6645,17 @@
         <v>7</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="G58" s="6" t="s">
         <v>249</v>
       </c>
       <c r="H58" s="6"/>
       <c r="I58" s="2" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="34">
@@ -6381,7 +6663,7 @@
         <v>258</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>40</v>
@@ -6390,17 +6672,17 @@
         <v>7</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="G59" s="9" t="s">
         <v>84</v>
       </c>
       <c r="H59" s="6"/>
       <c r="I59" s="2" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="34">
@@ -6408,7 +6690,7 @@
         <v>263</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>40</v>
@@ -6417,17 +6699,17 @@
         <v>7</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="G60" s="9" t="s">
         <v>84</v>
       </c>
       <c r="H60" s="6"/>
       <c r="I60" s="2" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="34">
@@ -6516,26 +6798,26 @@
         <v>292</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H64" s="6"/>
       <c r="I64" s="2" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="51">
@@ -6597,26 +6879,26 @@
         <v>346</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="G67" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H67" s="6"/>
       <c r="I67" s="2" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="34">
@@ -6705,26 +6987,26 @@
         <v>392</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="G71" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H71" s="6"/>
       <c r="I71" s="2" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="68">
@@ -6757,7 +7039,7 @@
         <v>415</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>96</v>
@@ -6766,16 +7048,16 @@
         <v>7</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="G73" s="5" t="s">
         <v>9</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="34">
@@ -6783,25 +7065,25 @@
         <v>437</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="68">
@@ -6809,7 +7091,7 @@
         <v>448</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>69</v>
@@ -6818,16 +7100,16 @@
         <v>7</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="G75" s="3" t="s">
         <v>84</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="51">
@@ -6835,7 +7117,7 @@
         <v>461</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>146</v>
@@ -6844,16 +7126,16 @@
         <v>7</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="34">
@@ -6861,7 +7143,7 @@
         <v>557</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>96</v>
@@ -6870,16 +7152,16 @@
         <v>7</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="51">
@@ -6887,7 +7169,7 @@
         <v>581</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>69</v>
@@ -6896,16 +7178,16 @@
         <v>7</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="85">
@@ -6913,25 +7195,25 @@
         <v>617</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="85">
@@ -6939,25 +7221,25 @@
         <v>687</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="G80" s="5" t="s">
         <v>9</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="51">
@@ -6965,7 +7247,7 @@
         <v>728</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>40</v>
@@ -6974,16 +7256,16 @@
         <v>7</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="34">
@@ -6991,25 +7273,25 @@
         <v>933</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="34">
@@ -7017,25 +7299,25 @@
         <v>997</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="17">
@@ -7043,30 +7325,30 @@
         <v>1042</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="17">
       <c r="C85" s="1" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="I85" s="2"/>
     </row>
@@ -7156,25 +7438,25 @@
         <v>8</v>
       </c>
       <c r="B93" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="D93" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E93" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="D93" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E93" s="1" t="s">
+      <c r="F93" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I93" s="2" t="s">
         <v>358</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I93" s="2" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="85">
@@ -7235,7 +7517,7 @@
         <v>16</v>
       </c>
       <c r="B96" s="18" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="C96" s="18" t="s">
         <v>28</v>
@@ -7244,17 +7526,17 @@
         <v>225</v>
       </c>
       <c r="E96" s="10" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="F96" s="10" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="G96" s="10" t="s">
         <v>9</v>
       </c>
       <c r="H96" s="10"/>
       <c r="I96" s="2" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="34">
@@ -7262,25 +7544,25 @@
         <v>17</v>
       </c>
       <c r="B97" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E97" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E97" s="1" t="s">
+      <c r="F97" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="F97" s="14" t="s">
+      <c r="G97" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I97" s="2" t="s">
         <v>336</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I97" s="2" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="85">
@@ -7288,25 +7570,25 @@
         <v>18</v>
       </c>
       <c r="B98" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E98" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="C98" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>615</v>
-      </c>
       <c r="F98" s="3" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="G98" s="5" t="s">
         <v>9</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="85">
@@ -7340,25 +7622,25 @@
         <v>22</v>
       </c>
       <c r="B100" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="D100" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E100" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="D100" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E100" s="1" t="s">
+      <c r="F100" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="F100" s="1" t="s">
+      <c r="G100" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I100" s="2" t="s">
         <v>320</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I100" s="2" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="68">
@@ -7366,7 +7648,7 @@
         <v>24</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>13</v>
@@ -7375,16 +7657,16 @@
         <v>225</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="68">
@@ -7418,7 +7700,7 @@
         <v>34</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C103" s="5" t="s">
         <v>301</v>
@@ -7427,13 +7709,13 @@
         <v>225</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G103" s="5" t="s">
         <v>84</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="51">
@@ -7441,7 +7723,7 @@
         <v>36</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>38</v>
@@ -7450,16 +7732,16 @@
         <v>225</v>
       </c>
       <c r="E104" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="F104" s="1" t="s">
         <v>483</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>484</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="51">
@@ -7494,7 +7776,7 @@
         <v>48</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C106" s="5" t="s">
         <v>69</v>
@@ -7503,16 +7785,16 @@
         <v>225</v>
       </c>
       <c r="E106" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F106" s="3" t="s">
         <v>387</v>
-      </c>
-      <c r="F106" s="3" t="s">
-        <v>388</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="34">
@@ -7520,7 +7802,7 @@
         <v>49</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>38</v>
@@ -7529,16 +7811,16 @@
         <v>225</v>
       </c>
       <c r="E107" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="F107" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="F107" s="1" t="s">
+      <c r="G107" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I107" s="2" t="s">
         <v>492</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I107" s="2" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="34">
@@ -7546,7 +7828,7 @@
         <v>50</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C108" s="5" t="s">
         <v>301</v>
@@ -7555,16 +7837,16 @@
         <v>225</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G108" s="3" t="s">
         <v>84</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="68">
@@ -7584,7 +7866,7 @@
         <v>271</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="G109" s="6" t="s">
         <v>10</v>
@@ -7599,25 +7881,25 @@
         <v>55</v>
       </c>
       <c r="B110" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="D110" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E110" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="D110" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E110" s="1" t="s">
+      <c r="F110" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="F110" s="1" t="s">
+      <c r="G110" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I110" s="2" t="s">
         <v>364</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I110" s="2" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="68">
@@ -7625,25 +7907,25 @@
         <v>56</v>
       </c>
       <c r="B111" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="D111" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E111" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="D111" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E111" s="1" t="s">
+      <c r="F111" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="F111" s="1" t="s">
+      <c r="G111" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I111" s="2" t="s">
         <v>314</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I111" s="2" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="51">
@@ -7651,7 +7933,7 @@
         <v>59</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>69</v>
@@ -7660,16 +7942,16 @@
         <v>225</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="51">
@@ -7677,7 +7959,7 @@
         <v>61</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>78</v>
@@ -7686,16 +7968,16 @@
         <v>225</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="68">
@@ -7703,7 +7985,7 @@
         <v>62</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>21</v>
@@ -7712,16 +7994,16 @@
         <v>225</v>
       </c>
       <c r="E114" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="F114" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="F114" s="1" t="s">
+      <c r="G114" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I114" s="2" t="s">
         <v>416</v>
-      </c>
-      <c r="G114" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I114" s="2" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="34">
@@ -7729,7 +8011,7 @@
         <v>63</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>21</v>
@@ -7738,16 +8020,16 @@
         <v>225</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="34">
@@ -7755,7 +8037,7 @@
         <v>64</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>21</v>
@@ -7764,16 +8046,16 @@
         <v>225</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="G116" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="68">
@@ -7781,7 +8063,7 @@
         <v>73</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>69</v>
@@ -7790,16 +8072,16 @@
         <v>225</v>
       </c>
       <c r="E117" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="F117" s="1" t="s">
         <v>515</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>516</v>
       </c>
       <c r="G117" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="68">
@@ -7807,25 +8089,25 @@
         <v>75</v>
       </c>
       <c r="B118" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C118" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="D118" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E118" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="D118" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E118" s="1" t="s">
+      <c r="F118" s="1" t="s">
         <v>504</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>505</v>
       </c>
       <c r="G118" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="34">
@@ -7833,25 +8115,25 @@
         <v>78</v>
       </c>
       <c r="B119" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C119" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="D119" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E119" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="D119" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E119" s="1" t="s">
+      <c r="F119" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="F119" s="14" t="s">
+      <c r="G119" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I119" s="2" t="s">
         <v>346</v>
-      </c>
-      <c r="G119" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I119" s="2" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="34">
@@ -7859,25 +8141,25 @@
         <v>79</v>
       </c>
       <c r="B120" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C120" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="D120" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E120" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D120" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E120" s="1" t="s">
+      <c r="F120" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="F120" s="1" t="s">
+      <c r="G120" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I120" s="2" t="s">
         <v>379</v>
-      </c>
-      <c r="G120" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I120" s="2" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="51">
@@ -7885,7 +8167,7 @@
         <v>82</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>13</v>
@@ -7894,16 +8176,16 @@
         <v>225</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="51">
@@ -7911,7 +8193,7 @@
         <v>86</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>78</v>
@@ -7920,16 +8202,16 @@
         <v>225</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="G122" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="68">
@@ -7937,7 +8219,7 @@
         <v>89</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>256</v>
@@ -7946,16 +8228,16 @@
         <v>225</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="G123" s="5" t="s">
         <v>84</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="85">
@@ -7989,25 +8271,25 @@
         <v>94</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C125" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E125" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="D125" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E125" s="1" t="s">
+      <c r="F125" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>332</v>
       </c>
       <c r="G125" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I125" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="102">
@@ -8015,25 +8297,25 @@
         <v>96</v>
       </c>
       <c r="B126" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="F126" s="19" t="s">
         <v>834</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>835</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>836</v>
-      </c>
-      <c r="F126" s="19" t="s">
-        <v>837</v>
       </c>
       <c r="G126" s="20" t="s">
         <v>84</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="119">
@@ -8041,7 +8323,7 @@
         <v>98</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C127" s="5" t="s">
         <v>88</v>
@@ -8050,16 +8332,16 @@
         <v>225</v>
       </c>
       <c r="E127" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="F127" s="3" t="s">
         <v>508</v>
-      </c>
-      <c r="F127" s="3" t="s">
-        <v>509</v>
       </c>
       <c r="G127" s="5" t="s">
         <v>84</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="51">
@@ -8067,25 +8349,25 @@
         <v>102</v>
       </c>
       <c r="B128" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C128" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="D128" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E128" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="D128" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E128" s="1" t="s">
+      <c r="F128" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="F128" s="1" t="s">
+      <c r="G128" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I128" s="2" t="s">
         <v>384</v>
-      </c>
-      <c r="G128" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I128" s="2" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="51">
@@ -8093,25 +8375,25 @@
         <v>103</v>
       </c>
       <c r="B129" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C129" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="D129" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E129" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="D129" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E129" s="1" t="s">
+      <c r="F129" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="F129" s="1" t="s">
+      <c r="G129" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I129" s="2" t="s">
         <v>393</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I129" s="2" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="51">
@@ -8119,25 +8401,25 @@
         <v>105</v>
       </c>
       <c r="B130" s="16" t="s">
+        <v>365</v>
+      </c>
+      <c r="C130" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="D130" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E130" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="D130" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E130" s="1" t="s">
+      <c r="F130" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="F130" s="1" t="s">
+      <c r="G130" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I130" s="2" t="s">
         <v>369</v>
-      </c>
-      <c r="G130" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I130" s="2" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="102">
@@ -8145,25 +8427,25 @@
         <v>109</v>
       </c>
       <c r="B131" s="16" t="s">
+        <v>836</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="F131" s="1" t="s">
         <v>839</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="G131" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I131" s="2" t="s">
         <v>840</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>841</v>
-      </c>
-      <c r="F131" s="1" t="s">
-        <v>842</v>
-      </c>
-      <c r="G131" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I131" s="2" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="68">
@@ -8171,25 +8453,25 @@
         <v>113</v>
       </c>
       <c r="B132" s="16" t="s">
+        <v>841</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I132" s="2" t="s">
         <v>844</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>845</v>
-      </c>
-      <c r="F132" s="1" t="s">
-        <v>846</v>
-      </c>
-      <c r="G132" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I132" s="2" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="85">
@@ -8197,7 +8479,7 @@
         <v>114</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>88</v>
@@ -8206,16 +8488,16 @@
         <v>225</v>
       </c>
       <c r="E133" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="F133" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="F133" s="1" t="s">
-        <v>565</v>
-      </c>
       <c r="G133" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="102">
@@ -8223,25 +8505,25 @@
         <v>116</v>
       </c>
       <c r="B134" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C134" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="D134" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E134" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="D134" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E134" s="1" t="s">
+      <c r="F134" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="F134" s="1" t="s">
+      <c r="G134" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I134" s="2" t="s">
         <v>530</v>
-      </c>
-      <c r="G134" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I134" s="2" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="85">
@@ -8249,25 +8531,25 @@
         <v>127</v>
       </c>
       <c r="B135" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E135" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="C135" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E135" s="1" t="s">
+      <c r="F135" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="F135" s="1" t="s">
+      <c r="G135" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I135" s="2" t="s">
         <v>525</v>
-      </c>
-      <c r="G135" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I135" s="2" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="68">
@@ -8275,25 +8557,25 @@
         <v>129</v>
       </c>
       <c r="B136" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="F136" s="1" t="s">
         <v>848</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="G136" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I136" s="2" t="s">
         <v>849</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>851</v>
-      </c>
-      <c r="G136" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I136" s="2" t="s">
-        <v>852</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="68">
@@ -8301,25 +8583,25 @@
         <v>130</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>225</v>
       </c>
       <c r="E137" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="F137" s="1" t="s">
         <v>457</v>
-      </c>
-      <c r="F137" s="1" t="s">
-        <v>458</v>
       </c>
       <c r="G137" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="34">
@@ -8327,7 +8609,7 @@
         <v>131</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>256</v>
@@ -8336,16 +8618,16 @@
         <v>225</v>
       </c>
       <c r="E138" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="F138" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="F138" s="1" t="s">
+      <c r="G138" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I138" s="2" t="s">
         <v>428</v>
-      </c>
-      <c r="G138" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I138" s="2" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="51">
@@ -8353,25 +8635,25 @@
         <v>133</v>
       </c>
       <c r="B139" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="F139" s="1" t="s">
         <v>853</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>854</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>855</v>
-      </c>
-      <c r="F139" s="1" t="s">
-        <v>856</v>
       </c>
       <c r="G139" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="68">
@@ -8379,25 +8661,25 @@
         <v>134</v>
       </c>
       <c r="B140" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E140" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="C140" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>473</v>
-      </c>
       <c r="F140" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G140" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="51">
@@ -8405,7 +8687,7 @@
         <v>137</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>146</v>
@@ -8414,16 +8696,16 @@
         <v>225</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="G141" s="3" t="s">
         <v>84</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="51">
@@ -8431,25 +8713,25 @@
         <v>138</v>
       </c>
       <c r="B142" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C142" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="C142" s="1" t="s">
+      <c r="D142" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E142" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="D142" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E142" s="1" t="s">
+      <c r="F142" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I142" s="2" t="s">
         <v>373</v>
-      </c>
-      <c r="F142" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="G142" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I142" s="2" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="85">
@@ -8457,7 +8739,7 @@
         <v>139</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>21</v>
@@ -8466,16 +8748,16 @@
         <v>225</v>
       </c>
       <c r="E143" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="F143" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="F143" s="1" t="s">
+      <c r="G143" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I143" s="2" t="s">
         <v>402</v>
-      </c>
-      <c r="G143" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I143" s="2" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="51">
@@ -8483,7 +8765,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>280</v>
@@ -8492,16 +8774,16 @@
         <v>225</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="G144" s="5" t="s">
         <v>9</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="34">
@@ -8509,7 +8791,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>88</v>
@@ -8518,16 +8800,16 @@
         <v>225</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="F145" s="6" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="G145" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="51">
@@ -8547,7 +8829,7 @@
         <v>231</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="G146" s="6" t="s">
         <v>84</v>
@@ -8588,25 +8870,25 @@
         <v>150</v>
       </c>
       <c r="B148" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C148" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="C148" s="1" t="s">
+      <c r="D148" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="F148" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="D148" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>863</v>
-      </c>
-      <c r="F148" s="1" t="s">
+      <c r="G148" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I148" s="2" t="s">
         <v>488</v>
-      </c>
-      <c r="G148" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I148" s="2" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="51">
@@ -8614,7 +8896,7 @@
         <v>152</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>33</v>
@@ -8623,16 +8905,16 @@
         <v>225</v>
       </c>
       <c r="E149" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="F149" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="F149" s="1" t="s">
-        <v>354</v>
       </c>
       <c r="G149" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="102">
@@ -8640,25 +8922,25 @@
         <v>159</v>
       </c>
       <c r="B150" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="F150" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="C150" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>869</v>
-      </c>
-      <c r="F150" s="1" t="s">
-        <v>871</v>
-      </c>
       <c r="G150" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="51">
@@ -8666,7 +8948,7 @@
         <v>162</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>301</v>
@@ -8675,16 +8957,16 @@
         <v>225</v>
       </c>
       <c r="E151" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="F151" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="F151" s="1" t="s">
+      <c r="G151" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I151" s="2" t="s">
         <v>432</v>
-      </c>
-      <c r="G151" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I151" s="2" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="102">
@@ -8692,25 +8974,25 @@
         <v>173</v>
       </c>
       <c r="B152" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I152" s="2" t="s">
         <v>872</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>873</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>863</v>
-      </c>
-      <c r="F152" s="1" t="s">
-        <v>874</v>
-      </c>
-      <c r="G152" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I152" s="2" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="34">
@@ -8745,26 +9027,26 @@
         <v>199</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="D154" s="6" t="s">
         <v>225</v>
       </c>
       <c r="E154" s="6" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="F154" s="21" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="G154" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H154" s="6"/>
       <c r="I154" s="2" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="68">
@@ -8775,7 +9057,7 @@
         <v>288</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D155" s="13" t="s">
         <v>225</v>
@@ -8798,7 +9080,7 @@
         <v>201</v>
       </c>
       <c r="B156" s="22" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="C156" s="22" t="s">
         <v>146</v>
@@ -8807,16 +9089,16 @@
         <v>225</v>
       </c>
       <c r="E156" s="22" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="G156" s="5" t="s">
         <v>84</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="34">
@@ -8824,25 +9106,25 @@
         <v>207</v>
       </c>
       <c r="B157" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E157" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="C157" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E157" s="1" t="s">
+      <c r="F157" s="1" t="s">
         <v>452</v>
-      </c>
-      <c r="F157" s="1" t="s">
-        <v>453</v>
       </c>
       <c r="G157" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I157" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="34">
@@ -8850,25 +9132,25 @@
         <v>208</v>
       </c>
       <c r="B158" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C158" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="C158" s="1" t="s">
+      <c r="D158" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E158" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="D158" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E158" s="1" t="s">
+      <c r="F158" s="1" t="s">
         <v>397</v>
-      </c>
-      <c r="F158" s="1" t="s">
-        <v>398</v>
       </c>
       <c r="G158" s="1" t="s">
         <v>249</v>
       </c>
       <c r="I158" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="34">
@@ -8876,22 +9158,22 @@
         <v>210</v>
       </c>
       <c r="B159" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E159" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="C159" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E159" s="1" t="s">
+      <c r="G159" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I159" s="2" t="s">
         <v>533</v>
-      </c>
-      <c r="G159" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I159" s="2" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="51">
@@ -8899,25 +9181,25 @@
         <v>211</v>
       </c>
       <c r="B160" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="F160" s="1" t="s">
         <v>884</v>
       </c>
-      <c r="C160" s="1" t="s">
+      <c r="G160" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I160" s="2" t="s">
         <v>885</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>886</v>
-      </c>
-      <c r="F160" s="1" t="s">
-        <v>887</v>
-      </c>
-      <c r="G160" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I160" s="2" t="s">
-        <v>888</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="85">
@@ -8925,7 +9207,7 @@
         <v>213</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>21</v>
@@ -8934,16 +9216,16 @@
         <v>225</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="G161" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I161" s="2" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="85">
@@ -8977,25 +9259,25 @@
         <v>220</v>
       </c>
       <c r="B163" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="F163" s="1" t="s">
         <v>893</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>894</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>895</v>
-      </c>
-      <c r="F163" s="1" t="s">
-        <v>896</v>
       </c>
       <c r="G163" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="119">
@@ -9003,7 +9285,7 @@
         <v>227</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>96</v>
@@ -9012,16 +9294,16 @@
         <v>225</v>
       </c>
       <c r="E164" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="F164" s="3" t="s">
         <v>349</v>
-      </c>
-      <c r="F164" s="3" t="s">
-        <v>350</v>
       </c>
       <c r="G164" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="34">
@@ -9029,25 +9311,25 @@
         <v>230</v>
       </c>
       <c r="B165" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="C165" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="C165" s="5" t="s">
+      <c r="D165" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E165" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D165" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E165" s="1" t="s">
+      <c r="F165" s="3" t="s">
         <v>479</v>
-      </c>
-      <c r="F165" s="3" t="s">
-        <v>480</v>
       </c>
       <c r="G165" s="5" t="s">
         <v>84</v>
       </c>
       <c r="I165" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="51">
@@ -9055,25 +9337,25 @@
         <v>236</v>
       </c>
       <c r="B166" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E166" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C166" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E166" s="1" t="s">
+      <c r="F166" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I166" s="2" t="s">
         <v>340</v>
-      </c>
-      <c r="F166" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="G166" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I166" s="2" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="34">
@@ -9081,7 +9363,7 @@
         <v>238</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>69</v>
@@ -9090,16 +9372,16 @@
         <v>225</v>
       </c>
       <c r="E167" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="F167" s="3" t="s">
         <v>499</v>
-      </c>
-      <c r="F167" s="3" t="s">
-        <v>500</v>
       </c>
       <c r="G167" s="3" t="s">
         <v>84</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="160">
@@ -9107,25 +9389,25 @@
         <v>240</v>
       </c>
       <c r="B168" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E168" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="C168" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E168" s="1" t="s">
+      <c r="F168" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="F168" s="15" t="s">
+      <c r="G168" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="G168" s="1" t="s">
+      <c r="I168" s="2" t="s">
         <v>325</v>
-      </c>
-      <c r="I168" s="2" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="51">
@@ -9133,25 +9415,25 @@
         <v>241</v>
       </c>
       <c r="B169" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="F169" s="1" t="s">
         <v>898</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>899</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>900</v>
-      </c>
-      <c r="F169" s="1" t="s">
-        <v>901</v>
       </c>
       <c r="G169" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I169" s="2" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="68">
@@ -9159,26 +9441,26 @@
         <v>244</v>
       </c>
       <c r="B170" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="F170" s="1" t="s">
         <v>903</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>905</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>904</v>
-      </c>
-      <c r="F170" s="1" t="s">
-        <v>906</v>
       </c>
       <c r="G170" s="16" t="s">
         <v>10</v>
       </c>
       <c r="H170" s="22"/>
       <c r="I170" s="2" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="51">
@@ -9186,26 +9468,26 @@
         <v>247</v>
       </c>
       <c r="B171" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="F171" s="1" t="s">
         <v>908</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>909</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>910</v>
-      </c>
-      <c r="F171" s="1" t="s">
-        <v>911</v>
       </c>
       <c r="G171" s="16" t="s">
         <v>10</v>
       </c>
       <c r="H171" s="22"/>
       <c r="I171" s="2" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="34">
@@ -9213,7 +9495,7 @@
         <v>251</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>230</v>
@@ -9222,16 +9504,16 @@
         <v>225</v>
       </c>
       <c r="E172" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I172" s="2" t="s">
         <v>544</v>
-      </c>
-      <c r="F172" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="G172" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I172" s="2" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="68">
@@ -9239,25 +9521,25 @@
         <v>253</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C173" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E173" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="D173" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E173" s="1" t="s">
+      <c r="F173" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="F173" s="1" t="s">
+      <c r="G173" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I173" s="2" t="s">
         <v>449</v>
-      </c>
-      <c r="G173" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I173" s="2" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="136">
@@ -9265,7 +9547,7 @@
         <v>260</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>146</v>
@@ -9274,16 +9556,16 @@
         <v>225</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="G174" s="5" t="s">
         <v>9</v>
       </c>
       <c r="I174" s="2" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="92" customHeight="1">
@@ -9291,970 +9573,1378 @@
         <v>261</v>
       </c>
       <c r="B175" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="F175" s="3" t="s">
         <v>571</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="F175" s="3" t="s">
-        <v>573</v>
       </c>
       <c r="G175" s="5" t="s">
         <v>9</v>
       </c>
       <c r="I175" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="92" customHeight="1">
       <c r="A176" s="1">
+        <v>264</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="F176" s="16" t="s">
+        <v>917</v>
+      </c>
+      <c r="G176" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I176" s="2" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" ht="102">
+      <c r="A177" s="1">
+        <v>274</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="F177" s="16" t="s">
+        <v>923</v>
+      </c>
+      <c r="G177" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I177" s="2" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" ht="102">
+      <c r="A178" s="1">
         <v>277</v>
       </c>
-      <c r="B176" s="1" t="s">
+      <c r="B178" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E178" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="C176" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E176" s="1" t="s">
+      <c r="F178" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="F176" s="1" t="s">
+      <c r="G178" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I178" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="G176" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I176" s="2" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" ht="51">
-      <c r="A177" s="1">
+    </row>
+    <row r="179" spans="1:9" ht="51">
+      <c r="A179" s="1">
         <v>279</v>
       </c>
-      <c r="B177" s="1" t="s">
+      <c r="B179" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="C177" s="1" t="s">
+      <c r="C179" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D177" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E177" s="1" t="s">
+      <c r="D179" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="F179" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="F177" s="3" t="s">
+      <c r="G179" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="I179" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="G177" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="I177" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" ht="85">
-      <c r="A178" s="1">
-        <v>285</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="F178" s="11" t="s">
-        <v>541</v>
-      </c>
-      <c r="G178" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I178" s="2" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" ht="85">
-      <c r="A179" s="3">
-        <v>287</v>
-      </c>
-      <c r="B179" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="C179" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="D179" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="F179" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="G179" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I179" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" ht="51">
+    </row>
+    <row r="180" spans="1:9" ht="34">
       <c r="A180" s="1">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>438</v>
+        <v>925</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>69</v>
+        <v>311</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>225</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="F180" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="G180" s="1" t="s">
-        <v>9</v>
+        <v>926</v>
+      </c>
+      <c r="F180" s="16" t="s">
+        <v>927</v>
+      </c>
+      <c r="G180" s="16" t="s">
+        <v>10</v>
       </c>
       <c r="I180" s="2" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" ht="68">
-      <c r="A181" s="6">
-        <v>300</v>
-      </c>
-      <c r="B181" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="C181" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D181" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="E181" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="F181" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="G181" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H181" s="6"/>
-      <c r="I181" s="8" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" ht="119">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" ht="34">
+      <c r="A181" s="1">
+        <v>281</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="F181" s="16" t="s">
+        <v>931</v>
+      </c>
+      <c r="G181" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I181" s="2" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" ht="68">
       <c r="A182" s="1">
-        <v>310</v>
+        <v>284</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>633</v>
+        <v>933</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>634</v>
+        <v>230</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>225</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="F182" s="3" t="s">
-        <v>636</v>
-      </c>
-      <c r="G182" s="5" t="s">
-        <v>9</v>
+        <v>934</v>
+      </c>
+      <c r="F182" s="16" t="s">
+        <v>935</v>
+      </c>
+      <c r="G182" s="16" t="s">
+        <v>10</v>
       </c>
       <c r="I182" s="2" t="s">
-        <v>637</v>
+        <v>936</v>
       </c>
     </row>
     <row r="183" spans="1:9" ht="85">
       <c r="A183" s="1">
-        <v>319</v>
+        <v>285</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>570</v>
+        <v>538</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>40</v>
+        <v>327</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>225</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="F183" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="G183" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="F183" s="16" t="s">
+        <v>539</v>
+      </c>
+      <c r="G183" s="22" t="s">
         <v>10</v>
       </c>
       <c r="I183" s="2" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" ht="51">
-      <c r="A184" s="6">
-        <v>322</v>
-      </c>
-      <c r="B184" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="C184" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D184" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="E184" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="F184" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="G184" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="H184" s="6"/>
-      <c r="I184" s="8" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" ht="34">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" ht="34">
+      <c r="A184" s="1">
+        <v>286</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="F184" s="5" t="s">
+        <v>940</v>
+      </c>
+      <c r="G184" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I184" s="2" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" ht="85">
       <c r="A185" s="1">
-        <v>323</v>
+        <v>287</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>638</v>
+        <v>408</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>639</v>
+        <v>409</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="F185" s="3" t="s">
-        <v>640</v>
-      </c>
-      <c r="G185" s="5" t="s">
-        <v>325</v>
+      <c r="E185" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="F185" s="22" t="s">
+        <v>411</v>
+      </c>
+      <c r="G185" s="22" t="s">
+        <v>10</v>
       </c>
       <c r="I185" s="2" t="s">
-        <v>641</v>
+        <v>412</v>
       </c>
     </row>
     <row r="186" spans="1:9" ht="51">
       <c r="A186" s="1">
-        <v>328</v>
+        <v>288</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>460</v>
+        <v>942</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>13</v>
+        <v>902</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>225</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="F186" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="G186" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="F186" s="22" t="s">
+        <v>944</v>
+      </c>
+      <c r="G186" s="22" t="s">
         <v>10</v>
       </c>
       <c r="I186" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" ht="68">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" ht="51">
       <c r="A187" s="1">
-        <v>334</v>
+        <v>289</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>535</v>
+        <v>437</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>225</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>537</v>
+        <v>438</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>536</v>
+        <v>440</v>
       </c>
       <c r="G187" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I187" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" ht="68">
+      <c r="A188" s="6">
+        <v>300</v>
+      </c>
+      <c r="B188" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C188" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D188" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E188" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="F188" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G188" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="I187" s="2" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" ht="51">
-      <c r="A188" s="1">
-        <v>341</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="C188" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D188" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E188" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="F188" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="G188" s="1" t="s">
+      <c r="H188" s="6"/>
+      <c r="I188" s="8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" ht="119">
+      <c r="A189" s="1">
+        <v>310</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="F189" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="G189" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I188" s="2" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" ht="51">
-      <c r="A189" s="1">
-        <v>347</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="D189" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E189" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="F189" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="G189" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="I189" s="2" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" ht="34">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" ht="51">
       <c r="A190" s="1">
-        <v>348</v>
+        <v>313</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>463</v>
+        <v>946</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>230</v>
+        <v>947</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>225</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="F190" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="G190" s="1" t="s">
-        <v>10</v>
+        <v>948</v>
+      </c>
+      <c r="F190" s="3" t="s">
+        <v>949</v>
+      </c>
+      <c r="G190" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="I190" s="2" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" ht="102">
-      <c r="A191" s="6">
-        <v>378</v>
-      </c>
-      <c r="B191" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="C191" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="D191" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="E191" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="F191" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="G191" s="10" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" ht="85">
+      <c r="A191" s="1">
+        <v>319</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="F191" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="G191" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H191" s="6"/>
-      <c r="I191" s="8" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" ht="34">
-      <c r="A192" s="1">
-        <v>380</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="D192" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="F192" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="G192" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I192" s="2" t="s">
-        <v>522</v>
+      <c r="I191" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" ht="51">
+      <c r="A192" s="6">
+        <v>322</v>
+      </c>
+      <c r="B192" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C192" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D192" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E192" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="F192" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="G192" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="H192" s="6"/>
+      <c r="I192" s="8" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="193" spans="1:9" ht="34">
       <c r="A193" s="1">
-        <v>384</v>
+        <v>323</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>418</v>
+        <v>635</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>636</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="E193" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="F193" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="G193" s="1" t="s">
-        <v>10</v>
+      <c r="F193" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="G193" s="5" t="s">
+        <v>324</v>
       </c>
       <c r="I193" s="2" t="s">
-        <v>420</v>
+        <v>638</v>
       </c>
     </row>
     <row r="194" spans="1:9" ht="51">
       <c r="A194" s="1">
-        <v>395</v>
+        <v>328</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>421</v>
+        <v>459</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>225</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>422</v>
+        <v>475</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>424</v>
+        <v>460</v>
       </c>
       <c r="G194" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I194" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" ht="187">
+      <c r="A195" s="1">
+        <v>332</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="F195" s="3" t="s">
+        <v>955</v>
+      </c>
+      <c r="G195" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="I195" s="2" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" ht="68">
+      <c r="A196" s="1">
+        <v>334</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="F196" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="G196" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I196" s="2" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" ht="51">
+      <c r="A197" s="1">
+        <v>341</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G197" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I194" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" ht="51">
-      <c r="A195" s="1">
-        <v>454</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="D195" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="F195" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="G195" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I195" s="2" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" ht="136">
-      <c r="A196" s="1">
-        <v>560</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="C196" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D196" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E196" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="F196" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="G196" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I196" s="2" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" ht="17">
-      <c r="A197" s="1">
-        <v>164</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" ht="78" customHeight="1">
-      <c r="A201" s="3">
-        <v>4</v>
-      </c>
-      <c r="B201" s="3" t="s">
-        <v>599</v>
-      </c>
-      <c r="C201" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="D201" s="5" t="s">
-        <v>548</v>
+      <c r="I197" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" ht="51">
+      <c r="A198" s="1">
+        <v>347</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="G198" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I198" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" ht="34">
+      <c r="A199" s="1">
+        <v>348</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="G199" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I199" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" ht="34">
+      <c r="A200" s="1">
+        <v>353</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="G200" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I200" s="2" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" ht="102">
+      <c r="A201" s="1">
+        <v>355</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>225</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="F201" s="3" t="s">
-        <v>600</v>
-      </c>
-      <c r="G201" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" ht="97" customHeight="1">
+        <v>962</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="G201" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I201" s="2" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" ht="34">
       <c r="A202" s="1">
-        <v>23</v>
+        <v>357</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>555</v>
+        <v>965</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>556</v>
+        <v>966</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>548</v>
+        <v>225</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>616</v>
+        <v>967</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>557</v>
+        <v>969</v>
       </c>
       <c r="G202" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I202" s="2" t="s">
-        <v>558</v>
+        <v>968</v>
       </c>
     </row>
     <row r="203" spans="1:9" ht="34">
       <c r="A203" s="1">
-        <v>25</v>
+        <v>372</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>583</v>
+        <v>970</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>548</v>
+        <v>225</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>584</v>
+        <v>971</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>586</v>
+        <v>972</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="I203" s="2" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" ht="170">
-      <c r="A204" s="3">
-        <v>42</v>
-      </c>
-      <c r="B204" s="3" t="s">
-        <v>551</v>
-      </c>
-      <c r="C204" s="5" t="s">
-        <v>552</v>
-      </c>
-      <c r="D204" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="E204" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="F204" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="G204" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="I204" s="2" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" ht="17">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" ht="102">
+      <c r="A204" s="6">
+        <v>378</v>
+      </c>
+      <c r="B204" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="C204" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="D204" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E204" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="F204" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="G204" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H204" s="6"/>
+      <c r="I204" s="8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" ht="34">
       <c r="A205" s="1">
-        <v>45</v>
+        <v>380</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>580</v>
+        <v>518</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>137</v>
+        <v>519</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="E205" s="1" t="s">
-        <v>581</v>
+        <v>225</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>582</v>
+        <v>520</v>
       </c>
       <c r="G205" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="I205" s="2" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="206" spans="1:9" ht="34">
       <c r="A206" s="1">
-        <v>76</v>
+        <v>384</v>
       </c>
       <c r="B206" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="G206" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I206" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" ht="51">
+      <c r="A207" s="1">
+        <v>395</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="G207" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I207" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" ht="153">
+      <c r="A208" s="1">
+        <v>399</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="F208" s="3" t="s">
+        <v>977</v>
+      </c>
+      <c r="G208" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I208" s="2" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" ht="102">
+      <c r="A209" s="1">
+        <v>424</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="G209" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I209" s="2" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" ht="102">
+      <c r="A210" s="1">
+        <v>426</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="G210" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I210" s="2" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" ht="51">
+      <c r="A211" s="1">
+        <v>454</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="G211" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I211" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" ht="136">
+      <c r="A212" s="1">
+        <v>560</v>
+      </c>
+      <c r="B212" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="C206" s="1" t="s">
+      <c r="C212" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E212" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="D206" s="1" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" ht="74" customHeight="1">
-      <c r="A207" s="1">
-        <v>84</v>
-      </c>
-      <c r="B207" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="C207" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="D207" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="E207" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="F207" s="3" t="s">
-        <v>591</v>
-      </c>
-      <c r="G207" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="I207" s="2" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" ht="119">
-      <c r="A208" s="1">
-        <v>124</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="C208" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D208" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="E208" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="F208" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="G208" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I208" s="2" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9" ht="17">
-      <c r="A209" s="1">
-        <v>128</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="C209" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="D209" s="1" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" ht="51">
-      <c r="A210" s="1">
-        <v>149</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="C210" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D210" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="F210" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="G210" s="1" t="s">
+      <c r="F212" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="G212" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I210" s="2" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" ht="136">
-      <c r="A211" s="1">
-        <v>269</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="C211" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="D211" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="E211" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="F211" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="G211" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I211" s="2" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9" ht="97" customHeight="1">
-      <c r="A212" s="1">
-        <v>287</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="C212" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D212" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="E212" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="F212" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="G212" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="I212" s="2" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9" ht="68">
-      <c r="A213" s="1">
-        <v>295</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="C213" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="D213" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="E213" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="F213" s="3" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" ht="78" customHeight="1">
+      <c r="A217" s="3">
+        <v>4</v>
+      </c>
+      <c r="B217" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="G213" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="I213" s="2" t="s">
+      <c r="C217" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="D217" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="F217" s="3" t="s">
         <v>598</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9" ht="68">
-      <c r="A214" s="1">
-        <v>301</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="C214" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="D214" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="E214" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="F214" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="G214" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I214" s="2" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9" ht="119">
-      <c r="A215" s="1">
-        <v>381</v>
-      </c>
-      <c r="B215" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="C215" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D215" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="E215" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="F215" s="3" t="s">
-        <v>603</v>
-      </c>
-      <c r="G215" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="I215" s="2" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9" ht="17">
-      <c r="A216" s="1">
-        <v>458</v>
-      </c>
-      <c r="B216" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="C216" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D216" s="1" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" ht="68">
-      <c r="A217" s="1">
-        <v>862</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="C217" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="D217" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="E217" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="F217" s="3" t="s">
-        <v>610</v>
       </c>
       <c r="G217" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="I217" s="2" t="s">
-        <v>612</v>
+    </row>
+    <row r="218" spans="1:9" ht="97" customHeight="1">
+      <c r="A218" s="1">
+        <v>23</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="G218" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I218" s="2" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" ht="34">
+      <c r="A219" s="1">
+        <v>25</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="G219" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I219" s="2" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" ht="170">
+      <c r="A220" s="3">
+        <v>42</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="C220" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="G220" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I220" s="2" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" ht="17">
+      <c r="A221" s="1">
+        <v>45</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="F221" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="G221" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" ht="34">
+      <c r="A222" s="1">
+        <v>76</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" ht="74" customHeight="1">
+      <c r="A223" s="1">
+        <v>84</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="F223" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="G223" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I223" s="2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" ht="119">
+      <c r="A224" s="1">
+        <v>124</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="F224" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="G224" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I224" s="2" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" ht="17">
+      <c r="A225" s="1">
+        <v>128</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" ht="51">
+      <c r="A226" s="1">
+        <v>149</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="F226" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="G226" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I226" s="2" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" ht="136">
+      <c r="A227" s="1">
+        <v>269</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="G227" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I227" s="2" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" ht="97" customHeight="1">
+      <c r="A228" s="1">
+        <v>287</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="G228" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I228" s="2" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" ht="68">
+      <c r="A229" s="1">
+        <v>295</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="F229" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="G229" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I229" s="2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" ht="68">
+      <c r="A230" s="1">
+        <v>301</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="G230" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I230" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" ht="119">
+      <c r="A231" s="1">
+        <v>381</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="F231" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="G231" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I231" s="2" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" ht="17">
+      <c r="A232" s="1">
+        <v>458</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" ht="68">
+      <c r="A233" s="1">
+        <v>862</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="F233" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="G233" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I233" s="2" t="s">
+        <v>610</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I197">
-    <sortCondition ref="D2:D197"/>
-    <sortCondition ref="A2:A197"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I213">
+    <sortCondition ref="D2:D213"/>
+    <sortCondition ref="A2:A213"/>
   </sortState>
   <dataConsolidate/>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -10298,11 +10988,11 @@
     <hyperlink ref="I146" r:id="rId37" xr:uid="{10802715-6C55-A749-BE7D-04FD97B8A84F}"/>
     <hyperlink ref="I91" r:id="rId38" xr:uid="{8A6DB2B8-6147-224A-85A2-5D6543F29DDA}"/>
     <hyperlink ref="I90" r:id="rId39" xr:uid="{2EC71B1F-7CDB-5346-B4E9-77FA3E46A7BF}"/>
-    <hyperlink ref="I184" r:id="rId40" xr:uid="{2B2E8B8F-0A57-D14F-A511-9C27FDB41404}"/>
+    <hyperlink ref="I192" r:id="rId40" xr:uid="{2B2E8B8F-0A57-D14F-A511-9C27FDB41404}"/>
     <hyperlink ref="I95" r:id="rId41" xr:uid="{0A921BCE-8D13-A348-AA4E-2C1848B3300E}"/>
     <hyperlink ref="I153" r:id="rId42" xr:uid="{D49B6F2B-4BF1-D344-A7A8-00A3BD014DE3}"/>
     <hyperlink ref="I105" r:id="rId43" xr:uid="{7F3F72E3-8DCD-A940-AE00-266FE3282D24}"/>
-    <hyperlink ref="I191" r:id="rId44" xr:uid="{6570C62B-EBD6-C345-A1C8-8730049EC75D}"/>
+    <hyperlink ref="I204" r:id="rId44" xr:uid="{6570C62B-EBD6-C345-A1C8-8730049EC75D}"/>
     <hyperlink ref="I109" r:id="rId45" xr:uid="{AE8A3BA5-3AEB-E740-883F-60D4C68AD8EF}"/>
     <hyperlink ref="I147" r:id="rId46" xr:uid="{A0E7F87E-5762-0240-92A3-151F3BD70B28}"/>
     <hyperlink ref="I94" r:id="rId47" xr:uid="{663A01BF-5359-1840-B738-7AE8EB25DF5F}"/>
@@ -10311,7 +11001,7 @@
     <hyperlink ref="I124" r:id="rId50" xr:uid="{F4425CE2-2E4A-C541-A0D3-E7FB676DC1DC}"/>
     <hyperlink ref="I102" r:id="rId51" xr:uid="{034D132E-0AC7-A54C-827B-217B8346D3E8}"/>
     <hyperlink ref="I99" r:id="rId52" xr:uid="{CECD3921-49CC-2C46-B156-DFC25E6634F5}"/>
-    <hyperlink ref="I177" r:id="rId53" xr:uid="{44D882DD-A208-3A46-AF30-B537B46F36A3}"/>
+    <hyperlink ref="I179" r:id="rId53" xr:uid="{44D882DD-A208-3A46-AF30-B537B46F36A3}"/>
     <hyperlink ref="I111" r:id="rId54" xr:uid="{D6BBF4B8-6DE6-B44C-BE9A-59F748503344}"/>
     <hyperlink ref="I100" r:id="rId55" xr:uid="{F7A37C63-2DA6-5741-BB36-AD325FD48EEC}"/>
     <hyperlink ref="I168" r:id="rId56" xr:uid="{B5B031F8-BDFC-FB4D-9668-7B91E783BB9A}"/>
@@ -10331,60 +11021,60 @@
     <hyperlink ref="I129" r:id="rId70" xr:uid="{FB6FF3A3-EB10-7943-B588-3A6E3E35D02D}"/>
     <hyperlink ref="I158" r:id="rId71" xr:uid="{6AD4965E-E4B8-6A4B-9AEE-2B42984A4228}"/>
     <hyperlink ref="I143" r:id="rId72" xr:uid="{E5E972AC-2264-3040-8AA8-5838D70ACF47}"/>
-    <hyperlink ref="I189" r:id="rId73" xr:uid="{E3C7BFF1-474D-8347-933E-9D7320008801}"/>
-    <hyperlink ref="I179" r:id="rId74" xr:uid="{D0D1C1CA-4E4E-1543-ADC5-23BCB98B47C6}"/>
+    <hyperlink ref="I198" r:id="rId73" xr:uid="{E3C7BFF1-474D-8347-933E-9D7320008801}"/>
+    <hyperlink ref="I185" r:id="rId74" xr:uid="{D0D1C1CA-4E4E-1543-ADC5-23BCB98B47C6}"/>
     <hyperlink ref="I114" r:id="rId75" xr:uid="{D4596676-748B-6942-9E31-A844A1FF2A7B}"/>
-    <hyperlink ref="I193" r:id="rId76" xr:uid="{589B01A7-78B0-DE49-B683-B5D857113719}"/>
-    <hyperlink ref="I194" r:id="rId77" xr:uid="{3C843F11-D9C0-484F-B165-832EE0E29D02}"/>
+    <hyperlink ref="I206" r:id="rId76" xr:uid="{589B01A7-78B0-DE49-B683-B5D857113719}"/>
+    <hyperlink ref="I207" r:id="rId77" xr:uid="{3C843F11-D9C0-484F-B165-832EE0E29D02}"/>
     <hyperlink ref="I138" r:id="rId78" xr:uid="{D471DE09-0454-4E4C-AC29-F7F16017CEEC}"/>
     <hyperlink ref="I151" r:id="rId79" xr:uid="{3A163934-CD1B-9243-96CB-E0A6B6FDA7A9}"/>
     <hyperlink ref="I108" r:id="rId80" xr:uid="{F6E7EC0D-1394-1344-8717-31C6D76ADA74}"/>
-    <hyperlink ref="I180" r:id="rId81" xr:uid="{B458E3D5-31DF-DA47-9164-E9AE642EDCAE}"/>
+    <hyperlink ref="I187" r:id="rId81" xr:uid="{B458E3D5-31DF-DA47-9164-E9AE642EDCAE}"/>
     <hyperlink ref="I103" r:id="rId82" xr:uid="{74BD5B08-B3EE-0F4A-95B0-EAB873EBD414}"/>
     <hyperlink ref="I173" r:id="rId83" xr:uid="{F29B15AF-4B41-C544-9A53-8E794F629CA6}"/>
     <hyperlink ref="I157" r:id="rId84" xr:uid="{9921D283-58BA-164B-93E8-4C06F186A1C9}"/>
     <hyperlink ref="I137" r:id="rId85" xr:uid="{C6F75269-8F08-EF4D-BFD5-2951EC147E6F}"/>
-    <hyperlink ref="I186" r:id="rId86" xr:uid="{749BA72F-54CD-064A-AF67-9044AA531A9B}"/>
-    <hyperlink ref="I190" r:id="rId87" xr:uid="{1664F26A-F8AB-7A40-AB58-E63AA7344C42}"/>
-    <hyperlink ref="I195" r:id="rId88" xr:uid="{E9CC483E-E1CB-464D-9D99-A95D272C832E}"/>
+    <hyperlink ref="I194" r:id="rId86" xr:uid="{749BA72F-54CD-064A-AF67-9044AA531A9B}"/>
+    <hyperlink ref="I199" r:id="rId87" xr:uid="{1664F26A-F8AB-7A40-AB58-E63AA7344C42}"/>
+    <hyperlink ref="I211" r:id="rId88" xr:uid="{E9CC483E-E1CB-464D-9D99-A95D272C832E}"/>
     <hyperlink ref="I140" r:id="rId89" xr:uid="{897ECBB0-2503-9A4F-991E-3CB275C6C9F3}"/>
     <hyperlink ref="I165" r:id="rId90" xr:uid="{8352D7FB-0856-2F46-9819-199144A17072}"/>
     <hyperlink ref="I104" r:id="rId91" xr:uid="{95D939CF-FD9B-0B4C-97EB-CA4D33B8F2E5}"/>
     <hyperlink ref="I148" r:id="rId92" xr:uid="{2BF0031D-3F19-3549-B12E-D48C5027B9D9}"/>
     <hyperlink ref="I107" r:id="rId93" xr:uid="{E1FF2E62-3AF1-F549-8F2C-287D94F8AF40}"/>
-    <hyperlink ref="I188" r:id="rId94" xr:uid="{4142CD18-EA92-0846-867F-68676C667560}"/>
+    <hyperlink ref="I197" r:id="rId94" xr:uid="{4142CD18-EA92-0846-867F-68676C667560}"/>
     <hyperlink ref="I167" r:id="rId95" xr:uid="{E456ADA8-118F-0C4F-B3D8-891EC7739ABA}"/>
     <hyperlink ref="I118" r:id="rId96" xr:uid="{2F597291-C9F8-364C-AB71-851633EDE7BF}"/>
     <hyperlink ref="I127" r:id="rId97" xr:uid="{DD27DA91-F0AE-3D49-88D1-08599D4EA84B}"/>
-    <hyperlink ref="I176" r:id="rId98" xr:uid="{E92FB1D0-236D-AA47-BAD2-44CFE73FE70B}"/>
+    <hyperlink ref="I178" r:id="rId98" xr:uid="{E92FB1D0-236D-AA47-BAD2-44CFE73FE70B}"/>
     <hyperlink ref="I117" r:id="rId99" xr:uid="{A8E7256E-8D74-1742-B352-EE59A9952655}"/>
-    <hyperlink ref="I192" r:id="rId100" xr:uid="{7DA2AC5E-1F72-644C-A3CB-87145B4575DE}"/>
+    <hyperlink ref="I205" r:id="rId100" xr:uid="{7DA2AC5E-1F72-644C-A3CB-87145B4575DE}"/>
     <hyperlink ref="I135" r:id="rId101" xr:uid="{E15A75D9-CBA4-C94A-A892-5CAE2CF35A8C}"/>
     <hyperlink ref="I134" r:id="rId102" xr:uid="{F7C52E37-3FF2-8747-83CC-BA1306AF1304}"/>
     <hyperlink ref="I159" r:id="rId103" xr:uid="{1DD00ABA-3BB9-204D-8077-BDFFA7DBE71E}"/>
-    <hyperlink ref="I187" r:id="rId104" xr:uid="{565305EB-A7EF-394B-9970-21D673BD618A}"/>
-    <hyperlink ref="I178" r:id="rId105" xr:uid="{DA7C2087-3C83-4541-8B02-B4BDD1D9AABA}"/>
+    <hyperlink ref="I196" r:id="rId104" xr:uid="{565305EB-A7EF-394B-9970-21D673BD618A}"/>
+    <hyperlink ref="I183" r:id="rId105" xr:uid="{DA7C2087-3C83-4541-8B02-B4BDD1D9AABA}"/>
     <hyperlink ref="I172" r:id="rId106" xr:uid="{6B971B47-171E-DF4F-90DC-11523FFD6E71}"/>
-    <hyperlink ref="I210" r:id="rId107" xr:uid="{50469B19-2610-3C46-B089-4FD78C52D7DE}"/>
-    <hyperlink ref="I204" r:id="rId108" xr:uid="{37FBE288-5659-0A47-B022-5E0C9DDF6235}"/>
-    <hyperlink ref="I202" r:id="rId109" xr:uid="{5B936A22-502C-3940-9D79-F21A056A365E}"/>
-    <hyperlink ref="I208" r:id="rId110" xr:uid="{CC72B58A-9A22-4C40-962E-6831ED2B2C5B}"/>
+    <hyperlink ref="I226" r:id="rId107" xr:uid="{50469B19-2610-3C46-B089-4FD78C52D7DE}"/>
+    <hyperlink ref="I220" r:id="rId108" xr:uid="{37FBE288-5659-0A47-B022-5E0C9DDF6235}"/>
+    <hyperlink ref="I218" r:id="rId109" xr:uid="{5B936A22-502C-3940-9D79-F21A056A365E}"/>
+    <hyperlink ref="I224" r:id="rId110" xr:uid="{CC72B58A-9A22-4C40-962E-6831ED2B2C5B}"/>
     <hyperlink ref="I133" r:id="rId111" xr:uid="{C949C09A-2384-084B-854A-72A9938165BF}"/>
-    <hyperlink ref="I183" r:id="rId112" xr:uid="{36C0DAB0-5DB8-D74D-9B65-2DAB90F0D618}"/>
+    <hyperlink ref="I191" r:id="rId112" xr:uid="{36C0DAB0-5DB8-D74D-9B65-2DAB90F0D618}"/>
     <hyperlink ref="I175" r:id="rId113" xr:uid="{8831012C-326F-C74E-9CAC-BE0E45BD484E}"/>
-    <hyperlink ref="I214" r:id="rId114" xr:uid="{A78E2F8F-FD47-B542-8DFC-83B636479563}"/>
-    <hyperlink ref="I203" r:id="rId115" xr:uid="{41FFAA8D-5342-3645-8628-A7444385DE3D}"/>
-    <hyperlink ref="I207" r:id="rId116" xr:uid="{35C2ECAF-C6CF-D94A-842F-65238D0F5E26}"/>
-    <hyperlink ref="I213" r:id="rId117" xr:uid="{FEE022EB-39CE-B040-9EC8-5C63465C49E5}"/>
-    <hyperlink ref="I215" r:id="rId118" xr:uid="{7155379E-BED3-1147-BBDD-FB9194E40941}"/>
-    <hyperlink ref="I212" r:id="rId119" xr:uid="{00529813-289E-FA45-B3DB-F9865DF54C47}"/>
-    <hyperlink ref="I217" r:id="rId120" xr:uid="{2255D6D5-3A4B-0642-B46C-FA77C6A01755}"/>
+    <hyperlink ref="I230" r:id="rId114" xr:uid="{A78E2F8F-FD47-B542-8DFC-83B636479563}"/>
+    <hyperlink ref="I219" r:id="rId115" xr:uid="{41FFAA8D-5342-3645-8628-A7444385DE3D}"/>
+    <hyperlink ref="I223" r:id="rId116" xr:uid="{35C2ECAF-C6CF-D94A-842F-65238D0F5E26}"/>
+    <hyperlink ref="I229" r:id="rId117" xr:uid="{FEE022EB-39CE-B040-9EC8-5C63465C49E5}"/>
+    <hyperlink ref="I231" r:id="rId118" xr:uid="{7155379E-BED3-1147-BBDD-FB9194E40941}"/>
+    <hyperlink ref="I228" r:id="rId119" xr:uid="{00529813-289E-FA45-B3DB-F9865DF54C47}"/>
+    <hyperlink ref="I233" r:id="rId120" xr:uid="{2255D6D5-3A4B-0642-B46C-FA77C6A01755}"/>
     <hyperlink ref="I98" r:id="rId121" xr:uid="{4864490C-B08B-874E-8DC0-BED3D27255A4}"/>
-    <hyperlink ref="I196" r:id="rId122" xr:uid="{C3A26F2A-D78C-C341-99A8-BDDBC3A3E5FA}"/>
+    <hyperlink ref="I212" r:id="rId122" xr:uid="{C3A26F2A-D78C-C341-99A8-BDDBC3A3E5FA}"/>
     <hyperlink ref="I123" r:id="rId123" xr:uid="{490CCE9D-2833-D641-AF49-60151F68E2CB}"/>
-    <hyperlink ref="I182" r:id="rId124" xr:uid="{6F1FD4DF-2CAA-6542-BC51-D03026E648CA}"/>
-    <hyperlink ref="I185" r:id="rId125" xr:uid="{B1C191E7-427D-FA49-8F8D-71930E3C43EC}"/>
-    <hyperlink ref="I211" r:id="rId126" xr:uid="{5DF6792E-CB67-9849-ACAE-610E8193CAE4}"/>
+    <hyperlink ref="I189" r:id="rId124" xr:uid="{6F1FD4DF-2CAA-6542-BC51-D03026E648CA}"/>
+    <hyperlink ref="I193" r:id="rId125" xr:uid="{B1C191E7-427D-FA49-8F8D-71930E3C43EC}"/>
+    <hyperlink ref="I227" r:id="rId126" xr:uid="{5DF6792E-CB67-9849-ACAE-610E8193CAE4}"/>
     <hyperlink ref="I4" r:id="rId127" xr:uid="{7C87F529-8464-7745-BDC3-50EE8227E343}"/>
     <hyperlink ref="I10" r:id="rId128" xr:uid="{DAEA7C5D-2130-AB47-8B55-7BC3E37A4FAD}"/>
     <hyperlink ref="I15" r:id="rId129" xr:uid="{03F641E5-A386-FA43-BAF9-1DDE2C2A75AA}"/>
@@ -10445,6 +11135,22 @@
     <hyperlink ref="I170" r:id="rId184" xr:uid="{005C90D8-5EAA-C84D-8D8A-1D61FDB06B0F}"/>
     <hyperlink ref="I171" r:id="rId185" xr:uid="{9041D237-4E72-6D43-BFB1-2E060B30BA59}"/>
     <hyperlink ref="I174" r:id="rId186" xr:uid="{ED0CC584-3ED2-7149-928F-EA3B71BD5131}"/>
+    <hyperlink ref="I176" r:id="rId187" xr:uid="{D51ADBC3-3D9A-E14B-9004-A7F7972F2721}"/>
+    <hyperlink ref="I177" r:id="rId188" xr:uid="{D4436540-BCCC-2A4A-ADAA-9B77071E341A}"/>
+    <hyperlink ref="I180" r:id="rId189" xr:uid="{0D8C7509-42F4-C04E-9C66-6C641241835A}"/>
+    <hyperlink ref="I181" r:id="rId190" xr:uid="{BC14F521-C347-DA40-9C81-532CD071FB3E}"/>
+    <hyperlink ref="I182" r:id="rId191" xr:uid="{CABD59A7-EB76-754E-99C1-866C04E06229}"/>
+    <hyperlink ref="I184" r:id="rId192" xr:uid="{47EF1BF2-84C1-B34B-A017-9E7D39BCB0FC}"/>
+    <hyperlink ref="I186" r:id="rId193" xr:uid="{78331178-72B1-3F4D-B1BD-EF08D60B0CF2}"/>
+    <hyperlink ref="I190" r:id="rId194" xr:uid="{DF286CEB-7389-7345-B435-40912DD5E387}"/>
+    <hyperlink ref="I195" r:id="rId195" xr:uid="{6E4E6C7A-5808-8F48-8486-E2C8E1DFCD68}"/>
+    <hyperlink ref="I200" r:id="rId196" xr:uid="{3EDC9ADE-EEEC-CC49-8F60-908AAD70ECE1}"/>
+    <hyperlink ref="I201" r:id="rId197" xr:uid="{8A22B948-2AED-7B4E-808A-10EE1CE78442}"/>
+    <hyperlink ref="I202" r:id="rId198" xr:uid="{3CEB4E85-A97B-814C-BDDA-0CBABE93A26D}"/>
+    <hyperlink ref="I203" r:id="rId199" xr:uid="{AE6B0471-4238-8445-B00A-C56C6C018760}"/>
+    <hyperlink ref="I208" r:id="rId200" xr:uid="{0EE3283B-48D6-424D-B1F6-2916CA72117A}"/>
+    <hyperlink ref="I209" r:id="rId201" xr:uid="{9136C5FF-A3A7-E446-8704-D719DC73218A}"/>
+    <hyperlink ref="I210" r:id="rId202" xr:uid="{050C7CCD-B828-CA45-9764-6BF0AEFE3F36}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
